--- a/SMDB.xlsx
+++ b/SMDB.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>VIJNARA</t>
   </si>
   <si>
     <t>Daimler@123</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -358,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -371,15 +377,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>

--- a/SMDB.xlsx
+++ b/SMDB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>VIJNARA</t>
   </si>
@@ -36,13 +36,40 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Dicipline</t>
+  </si>
+  <si>
+    <t>Punctual, Time Management</t>
+  </si>
+  <si>
+    <t>Work Ethic (Professionalism, Integrity, Honesty)</t>
+  </si>
+  <si>
+    <t>Basic Communication</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Commitment</t>
+  </si>
+  <si>
+    <t>Team work</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Attention to details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +85,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,9 +119,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -364,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -375,20 +416,71 @@
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SMDB.xlsx
+++ b/SMDB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>VIJNARA</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t>Attention to details</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Ml</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
 </sst>
 </file>
@@ -119,11 +146,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,42 +450,69 @@
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,6 +542,33 @@
       </c>
       <c r="K2">
         <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
